--- a/artfynd/A 23782-2023.xlsx
+++ b/artfynd/A 23782-2023.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112094770</v>
+        <v>112094771</v>
       </c>
       <c r="B3" t="n">
-        <v>93881</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2869</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -838,7 +838,7 @@
         <v>7022771.561507253</v>
       </c>
       <c r="S3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112094771</v>
+        <v>112094770</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>93881</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>2869</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -950,7 +950,7 @@
         <v>7022771.561507253</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>

--- a/artfynd/A 23782-2023.xlsx
+++ b/artfynd/A 23782-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112094769</v>
+        <v>112094771</v>
       </c>
       <c r="B2" t="n">
-        <v>78604</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6461</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -726,7 +726,7 @@
         <v>7022771.561507253</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112094771</v>
+        <v>112094769</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>78604</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6461</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -838,7 +838,7 @@
         <v>7022771.561507253</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>

--- a/artfynd/A 23782-2023.xlsx
+++ b/artfynd/A 23782-2023.xlsx
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>625863.0042270173</v>
+        <v>625863</v>
       </c>
       <c r="R2" t="n">
-        <v>7022771.561507253</v>
+        <v>7022772</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -753,19 +753,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112094769</v>
+        <v>112094770</v>
       </c>
       <c r="B3" t="n">
-        <v>78604</v>
+        <v>93881</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +798,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6461</v>
+        <v>2869</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>625863.0042270173</v>
+        <v>625863</v>
       </c>
       <c r="R3" t="n">
-        <v>7022771.561507253</v>
+        <v>7022772</v>
       </c>
       <c r="S3" t="n">
         <v>50</v>
@@ -865,19 +855,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112094770</v>
+        <v>112094769</v>
       </c>
       <c r="B4" t="n">
-        <v>93881</v>
+        <v>78604</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +900,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2869</v>
+        <v>6461</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +924,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>625863.0042270173</v>
+        <v>625863</v>
       </c>
       <c r="R4" t="n">
-        <v>7022771.561507253</v>
+        <v>7022772</v>
       </c>
       <c r="S4" t="n">
         <v>50</v>
@@ -977,19 +957,9 @@
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 23782-2023.xlsx
+++ b/artfynd/A 23782-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112094771</v>
+        <v>112094770</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>94034</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>2869</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -726,7 +726,7 @@
         <v>7022772</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112094770</v>
+        <v>112094771</v>
       </c>
       <c r="B3" t="n">
-        <v>93881</v>
+        <v>77636</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -794,25 +794,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2869</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -828,7 +828,7 @@
         <v>7022772</v>
       </c>
       <c r="S3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>112094769</v>
       </c>
       <c r="B4" t="n">
-        <v>78604</v>
+        <v>78725</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>

--- a/artfynd/A 23782-2023.xlsx
+++ b/artfynd/A 23782-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112094770</v>
+        <v>112094769</v>
       </c>
       <c r="B2" t="n">
-        <v>94034</v>
+        <v>78739</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2869</v>
+        <v>6461</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112094771</v>
+        <v>112094770</v>
       </c>
       <c r="B3" t="n">
-        <v>77636</v>
+        <v>94048</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -794,25 +794,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>2869</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -828,7 +828,7 @@
         <v>7022772</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112094769</v>
+        <v>112094771</v>
       </c>
       <c r="B4" t="n">
-        <v>78725</v>
+        <v>77650</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -896,25 +896,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6461</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -930,7 +930,7 @@
         <v>7022772</v>
       </c>
       <c r="S4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
